--- a/data/trans_dic/P78A_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P78A_2023-Estudios-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.986964388469176</v>
+        <v>0.9869643884691761</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.810892564063142</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.874259580985859</v>
+        <v>0.8742595809858593</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9741487443587229</v>
+        <v>0.9725238938910504</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7849763616615341</v>
+        <v>0.7860857835460537</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8563897055212984</v>
+        <v>0.8582655285706589</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9943590232909481</v>
+        <v>0.9941344726613273</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8327861250465302</v>
+        <v>0.8328861093639135</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.89025462394332</v>
+        <v>0.889942708099787</v>
       </c>
     </row>
     <row r="7">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.7935609757036561</v>
+        <v>0.793560975703656</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.723477602353479</v>
+        <v>0.7234776023534787</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.7540357840315968</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7511895077653932</v>
+        <v>0.7502920142609226</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6955376748219678</v>
+        <v>0.6959611861262019</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7298881625369217</v>
+        <v>0.7290404185690782</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8291446626857039</v>
+        <v>0.831170360553024</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7519421462012709</v>
+        <v>0.7473591327150777</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.776890549442578</v>
+        <v>0.7779383446216719</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.8774688470428004</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.8303870997193716</v>
+        <v>0.8303870997193715</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.8522275293161164</v>
+        <v>0.8522275293161163</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8074416835327892</v>
+        <v>0.8174793040679249</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.776176520539958</v>
+        <v>0.7782230616629107</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8073724461425602</v>
+        <v>0.8112229852317706</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9271145992879403</v>
+        <v>0.9286717834126611</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8758207900162007</v>
+        <v>0.8769656761452039</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8882229839610418</v>
+        <v>0.8892802992184873</v>
       </c>
     </row>
     <row r="13">
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.8557182435053972</v>
+        <v>0.8557182435053973</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.7646890646641648</v>
+        <v>0.7646890646641645</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.802600265008247</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8296781481261841</v>
+        <v>0.8269974343776419</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7452885579431138</v>
+        <v>0.7457824458696728</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7869181611095303</v>
+        <v>0.7883142449261095</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8827938912955091</v>
+        <v>0.8790276985664478</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7842934993401025</v>
+        <v>0.7820761222352007</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8168809107106157</v>
+        <v>0.8173720083785537</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>403877</v>
+        <v>403204</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>578842</v>
+        <v>579660</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>986557</v>
+        <v>988718</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>412256</v>
+        <v>412163</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>614096</v>
+        <v>614170</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>1025569</v>
+        <v>1025210</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>715407</v>
+        <v>714553</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>856783</v>
+        <v>857305</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1594218</v>
+        <v>1592366</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>789649</v>
+        <v>791578</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>926264</v>
+        <v>920619</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1696880</v>
+        <v>1699169</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>177539</v>
+        <v>179747</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>197240</v>
+        <v>197760</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>382691</v>
+        <v>384516</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>203853</v>
+        <v>204195</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>222561</v>
+        <v>222852</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>421014</v>
+        <v>421515</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1316566</v>
+        <v>1312313</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1657034</v>
+        <v>1658132</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2998305</v>
+        <v>3003624</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>1400853</v>
+        <v>1394876</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>1743756</v>
+        <v>1738826</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>3112468</v>
+        <v>3114339</v>
       </c>
     </row>
     <row r="20">
